--- a/需求响应/data/Road.xlsx
+++ b/需求响应/data/Road.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EFF70-5880-4206-960C-0AC1EF34A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA41FF9-3EB7-42D9-93BB-EE397BA91482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6050" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -371,16 +380,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -405,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -414,7 +423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -422,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -431,7 +440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -439,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -448,7 +457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -456,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -465,7 +474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -473,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -482,7 +491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -490,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -499,7 +508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -507,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -516,7 +525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -524,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -533,7 +542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -541,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -550,7 +559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -558,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -567,7 +576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -575,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -584,7 +593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -592,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -601,7 +610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -609,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -618,7 +627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -626,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -635,7 +644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -643,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -652,7 +661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -660,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -669,7 +678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -677,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -686,7 +695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -694,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -703,7 +712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -711,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -720,7 +729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -728,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -737,7 +746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -745,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -754,7 +763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -762,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -771,7 +780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -779,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -788,7 +797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -796,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -805,7 +814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -813,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -822,7 +831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
@@ -830,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -839,7 +848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -847,7 +856,7 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -856,7 +865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15</v>
       </c>
@@ -864,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -873,7 +882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
@@ -881,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -890,7 +899,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16</v>
       </c>
@@ -898,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -907,7 +916,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17</v>
       </c>
@@ -915,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -924,7 +933,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>17</v>
       </c>
@@ -932,7 +941,7 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -941,7 +950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18</v>
       </c>
@@ -949,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -958,7 +967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>18</v>
       </c>
@@ -966,7 +975,7 @@
         <v>27</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -975,7 +984,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>19</v>
       </c>
@@ -983,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -992,7 +1001,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1009,7 +1018,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>21</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1026,7 +1035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>21</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>29</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1043,7 +1052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1060,7 +1069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
@@ -1068,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1077,7 +1086,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>23</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1094,7 +1103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>23</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1111,7 +1120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1128,7 +1137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>25</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1145,7 +1154,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>25</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1162,7 +1171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>26</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1179,7 +1188,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>26</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1196,7 +1205,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>27</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1213,7 +1222,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>28</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>1</v>

--- a/需求响应/data/Road.xlsx
+++ b/需求响应/data/Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA41FF9-3EB7-42D9-93BB-EE397BA91482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0E9A8-CBCC-454C-BEE1-61BE13D2D200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="1670" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -754,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>27</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>29</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>1</v>

--- a/需求响应/data/Road.xlsx
+++ b/需求响应/data/Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0E9A8-CBCC-454C-BEE1-61BE13D2D200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A279A6B8-5321-443D-8499-2B50645EC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1670" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
